--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/15/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/15/FD_Curve.xlsx
@@ -466,10 +466,10 @@
         <v>0.0310005</v>
       </c>
       <c r="B3" t="n">
-        <v>1.11334</v>
+        <v>1.11364</v>
       </c>
       <c r="C3" t="n">
-        <v>1113.34</v>
+        <v>1113.64</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>1.49795</v>
+        <v>2.24424</v>
       </c>
       <c r="C4" t="n">
-        <v>1497.95</v>
+        <v>2244.24</v>
       </c>
     </row>
     <row r="5">
@@ -488,252 +488,252 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>1.73878</v>
+        <v>3.42934</v>
       </c>
       <c r="C5" t="n">
-        <v>1738.78</v>
+        <v>3429.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124019</v>
+        <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>1.94874</v>
+        <v>4.399850000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>1948.74</v>
+        <v>4399.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.15505</v>
+        <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>2.14001</v>
+        <v>5.63424</v>
       </c>
       <c r="C7" t="n">
-        <v>2140.01</v>
+        <v>5634.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186026</v>
+        <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>2.31459</v>
+        <v>6.667590000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>2314.59</v>
+        <v>6667.59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.217002</v>
+        <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>2.4821</v>
+        <v>7.86267</v>
       </c>
       <c r="C9" t="n">
-        <v>2482.1</v>
+        <v>7862.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247929</v>
+        <v>0.247923</v>
       </c>
       <c r="B10" t="n">
-        <v>2.64491</v>
+        <v>8.920579999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>2644.91</v>
+        <v>8920.58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278854</v>
+        <v>0.278848</v>
       </c>
       <c r="B11" t="n">
-        <v>2.76174</v>
+        <v>10.0216</v>
       </c>
       <c r="C11" t="n">
-        <v>2761.74</v>
+        <v>10021.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309779</v>
+        <v>0.309783</v>
       </c>
       <c r="B12" t="n">
-        <v>2.86531</v>
+        <v>11.1847</v>
       </c>
       <c r="C12" t="n">
-        <v>2865.31</v>
+        <v>11184.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340704</v>
+        <v>0.340708</v>
       </c>
       <c r="B13" t="n">
-        <v>2.95921</v>
+        <v>12.1531</v>
       </c>
       <c r="C13" t="n">
-        <v>2959.21</v>
+        <v>12153.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371629</v>
+        <v>0.371633</v>
       </c>
       <c r="B14" t="n">
-        <v>3.04633</v>
+        <v>13.1182</v>
       </c>
       <c r="C14" t="n">
-        <v>3046.33</v>
+        <v>13118.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402554</v>
+        <v>0.402558</v>
       </c>
       <c r="B15" t="n">
-        <v>3.1196</v>
+        <v>13.6055</v>
       </c>
       <c r="C15" t="n">
-        <v>3119.6</v>
+        <v>13605.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433479</v>
+        <v>0.433483</v>
       </c>
       <c r="B16" t="n">
-        <v>3.18223</v>
+        <v>13.8645</v>
       </c>
       <c r="C16" t="n">
-        <v>3182.23</v>
+        <v>13864.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464404</v>
+        <v>0.464403</v>
       </c>
       <c r="B17" t="n">
-        <v>3.23645</v>
+        <v>13.8522</v>
       </c>
       <c r="C17" t="n">
-        <v>3236.45</v>
+        <v>13852.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495329</v>
+        <v>0.495328</v>
       </c>
       <c r="B18" t="n">
-        <v>3.28615</v>
+        <v>13.776</v>
       </c>
       <c r="C18" t="n">
-        <v>3286.15</v>
+        <v>13776</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526254</v>
+        <v>0.526253</v>
       </c>
       <c r="B19" t="n">
-        <v>3.33455</v>
+        <v>13.7185</v>
       </c>
       <c r="C19" t="n">
-        <v>3334.55</v>
+        <v>13718.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5571739999999999</v>
+        <v>0.557178</v>
       </c>
       <c r="B20" t="n">
-        <v>3.3751</v>
+        <v>13.6564</v>
       </c>
       <c r="C20" t="n">
-        <v>3375.1</v>
+        <v>13656.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588099</v>
+        <v>0.588103</v>
       </c>
       <c r="B21" t="n">
-        <v>3.41766</v>
+        <v>13.5974</v>
       </c>
       <c r="C21" t="n">
-        <v>3417.66</v>
+        <v>13597.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6191410000000001</v>
+        <v>0.6191449999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>3.45266</v>
+        <v>13.5338</v>
       </c>
       <c r="C22" t="n">
-        <v>3452.66</v>
+        <v>13533.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650318</v>
+        <v>0.650322</v>
       </c>
       <c r="B23" t="n">
-        <v>3.49149</v>
+        <v>13.4612</v>
       </c>
       <c r="C23" t="n">
-        <v>3491.49</v>
+        <v>13461.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681491</v>
+        <v>0.681495</v>
       </c>
       <c r="B24" t="n">
-        <v>3.52389</v>
+        <v>13.3879</v>
       </c>
       <c r="C24" t="n">
-        <v>3523.89</v>
+        <v>13387.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712664</v>
+        <v>0.7126670000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>3.55756</v>
+        <v>13.3048</v>
       </c>
       <c r="C25" t="n">
-        <v>3557.56</v>
+        <v>13304.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743841</v>
+        <v>0.7438439999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>3.5891</v>
+        <v>13.218</v>
       </c>
       <c r="C26" t="n">
-        <v>3589.1</v>
+        <v>13218</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775013</v>
+        <v>0.775017</v>
       </c>
       <c r="B27" t="n">
-        <v>3.61788</v>
+        <v>13.1232</v>
       </c>
       <c r="C27" t="n">
-        <v>3617.88</v>
+        <v>13123.2</v>
       </c>
     </row>
     <row r="28">
@@ -741,32 +741,32 @@
         <v>0.80619</v>
       </c>
       <c r="B28" t="n">
-        <v>3.64814</v>
+        <v>13.0211</v>
       </c>
       <c r="C28" t="n">
-        <v>3648.14</v>
+        <v>13021.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837363</v>
+        <v>0.837367</v>
       </c>
       <c r="B29" t="n">
-        <v>3.67639</v>
+        <v>12.9158</v>
       </c>
       <c r="C29" t="n">
-        <v>3676.39</v>
+        <v>12915.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8685349999999999</v>
+        <v>0.8685389999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>3.70241</v>
+        <v>12.8005</v>
       </c>
       <c r="C30" t="n">
-        <v>3702.41</v>
+        <v>12800.5</v>
       </c>
     </row>
     <row r="31">
@@ -774,791 +774,791 @@
         <v>0.899712</v>
       </c>
       <c r="B31" t="n">
-        <v>3.72872</v>
+        <v>12.6829</v>
       </c>
       <c r="C31" t="n">
-        <v>3728.72</v>
+        <v>12682.9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930885</v>
+        <v>0.930889</v>
       </c>
       <c r="B32" t="n">
-        <v>3.75504</v>
+        <v>12.5548</v>
       </c>
       <c r="C32" t="n">
-        <v>3755.04</v>
+        <v>12554.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620570000000001</v>
+        <v>0.9620610000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>3.77993</v>
+        <v>12.4242</v>
       </c>
       <c r="C33" t="n">
-        <v>3779.93</v>
+        <v>12424.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993234</v>
+        <v>0.993238</v>
       </c>
       <c r="B34" t="n">
-        <v>3.80346</v>
+        <v>12.2853</v>
       </c>
       <c r="C34" t="n">
-        <v>3803.46</v>
+        <v>12285.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02423</v>
+        <v>1.02427</v>
       </c>
       <c r="B35" t="n">
-        <v>3.82642</v>
+        <v>12.1404</v>
       </c>
       <c r="C35" t="n">
-        <v>3826.42</v>
+        <v>12140.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.0552</v>
+        <v>1.05523</v>
       </c>
       <c r="B36" t="n">
-        <v>3.84922</v>
+        <v>11.9907</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.22</v>
+        <v>11990.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08617</v>
+        <v>1.08621</v>
       </c>
       <c r="B37" t="n">
-        <v>3.87159</v>
+        <v>11.8315</v>
       </c>
       <c r="C37" t="n">
-        <v>3871.59</v>
+        <v>11831.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11714</v>
+        <v>1.11719</v>
       </c>
       <c r="B38" t="n">
-        <v>3.89345</v>
+        <v>7.73934</v>
       </c>
       <c r="C38" t="n">
-        <v>3893.45</v>
+        <v>7739.34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14811</v>
+        <v>1.14791</v>
       </c>
       <c r="B39" t="n">
-        <v>3.91461</v>
+        <v>9.97031</v>
       </c>
       <c r="C39" t="n">
-        <v>3914.61</v>
+        <v>9970.309999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17907</v>
+        <v>1.17918</v>
       </c>
       <c r="B40" t="n">
-        <v>3.93515</v>
+        <v>11.3993</v>
       </c>
       <c r="C40" t="n">
-        <v>3935.15</v>
+        <v>11399.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21004</v>
+        <v>1.21025</v>
       </c>
       <c r="B41" t="n">
-        <v>3.95511</v>
+        <v>9.384980000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>3955.11</v>
+        <v>9384.98</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24101</v>
+        <v>1.24167</v>
       </c>
       <c r="B42" t="n">
-        <v>3.97477</v>
+        <v>11.1552</v>
       </c>
       <c r="C42" t="n">
-        <v>3974.77</v>
+        <v>11155.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27198</v>
+        <v>1.27264</v>
       </c>
       <c r="B43" t="n">
-        <v>3.99385</v>
+        <v>10.9852</v>
       </c>
       <c r="C43" t="n">
-        <v>3993.85</v>
+        <v>10985.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30294</v>
+        <v>1.30338</v>
       </c>
       <c r="B44" t="n">
-        <v>4.01252</v>
+        <v>11.5243</v>
       </c>
       <c r="C44" t="n">
-        <v>4012.52</v>
+        <v>11524.3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33391</v>
+        <v>1.33471</v>
       </c>
       <c r="B45" t="n">
-        <v>4.03101</v>
+        <v>11.1068</v>
       </c>
       <c r="C45" t="n">
-        <v>4031.01</v>
+        <v>11106.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36488</v>
+        <v>1.36546</v>
       </c>
       <c r="B46" t="n">
-        <v>4.04916</v>
+        <v>10.8461</v>
       </c>
       <c r="C46" t="n">
-        <v>4049.16</v>
+        <v>10846.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39584</v>
+        <v>1.39639</v>
       </c>
       <c r="B47" t="n">
-        <v>4.0669</v>
+        <v>10.573</v>
       </c>
       <c r="C47" t="n">
-        <v>4066.9</v>
+        <v>10573</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42682</v>
+        <v>1.42749</v>
       </c>
       <c r="B48" t="n">
-        <v>4.084239999999999</v>
+        <v>10.3894</v>
       </c>
       <c r="C48" t="n">
-        <v>4084.24</v>
+        <v>10389.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45778</v>
+        <v>1.4585</v>
       </c>
       <c r="B49" t="n">
-        <v>4.101310000000001</v>
+        <v>10.2333</v>
       </c>
       <c r="C49" t="n">
-        <v>4101.31</v>
+        <v>10233.3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48875</v>
+        <v>1.48952</v>
       </c>
       <c r="B50" t="n">
-        <v>4.11804</v>
+        <v>10.106</v>
       </c>
       <c r="C50" t="n">
-        <v>4118.04</v>
+        <v>10106</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.51972</v>
+        <v>1.52055</v>
       </c>
       <c r="B51" t="n">
-        <v>4.13441</v>
+        <v>9.770770000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>4134.41</v>
+        <v>9770.77</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55068</v>
+        <v>1.55146</v>
       </c>
       <c r="B52" t="n">
-        <v>4.15062</v>
+        <v>9.520709999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>4150.62</v>
+        <v>9520.709999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58165</v>
+        <v>1.58264</v>
       </c>
       <c r="B53" t="n">
-        <v>4.16654</v>
+        <v>9.36646</v>
       </c>
       <c r="C53" t="n">
-        <v>4166.54</v>
+        <v>9366.459999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61262</v>
+        <v>1.61344</v>
       </c>
       <c r="B54" t="n">
-        <v>4.18216</v>
+        <v>9.16118</v>
       </c>
       <c r="C54" t="n">
-        <v>4182.16</v>
+        <v>9161.18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64359</v>
+        <v>1.64457</v>
       </c>
       <c r="B55" t="n">
-        <v>4.19756</v>
+        <v>9.02355</v>
       </c>
       <c r="C55" t="n">
-        <v>4197.56</v>
+        <v>9023.549999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67456</v>
+        <v>1.67539</v>
       </c>
       <c r="B56" t="n">
-        <v>4.212590000000001</v>
+        <v>8.78279</v>
       </c>
       <c r="C56" t="n">
-        <v>4212.59</v>
+        <v>8782.790000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70552</v>
+        <v>1.70642</v>
       </c>
       <c r="B57" t="n">
-        <v>4.227390000000001</v>
+        <v>8.556010000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>4227.39</v>
+        <v>8556.01</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73649</v>
+        <v>1.73744</v>
       </c>
       <c r="B58" t="n">
-        <v>4.24185</v>
+        <v>8.356280000000002</v>
       </c>
       <c r="C58" t="n">
-        <v>4241.85</v>
+        <v>8356.280000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76746</v>
+        <v>1.76826</v>
       </c>
       <c r="B59" t="n">
-        <v>4.256100000000001</v>
+        <v>8.247459999999998</v>
       </c>
       <c r="C59" t="n">
-        <v>4256.1</v>
+        <v>8247.459999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79843</v>
+        <v>1.79951</v>
       </c>
       <c r="B60" t="n">
-        <v>4.27014</v>
+        <v>8.07315</v>
       </c>
       <c r="C60" t="n">
-        <v>4270.14</v>
+        <v>8073.15</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.8294</v>
+        <v>1.83027</v>
       </c>
       <c r="B61" t="n">
-        <v>4.283939999999999</v>
+        <v>7.927729999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>4283.94</v>
+        <v>7927.73</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86036</v>
+        <v>1.86121</v>
       </c>
       <c r="B62" t="n">
-        <v>4.29755</v>
+        <v>7.74179</v>
       </c>
       <c r="C62" t="n">
-        <v>4297.55</v>
+        <v>7741.79</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89133</v>
+        <v>1.89235</v>
       </c>
       <c r="B63" t="n">
-        <v>4.31104</v>
+        <v>7.66508</v>
       </c>
       <c r="C63" t="n">
-        <v>4311.04</v>
+        <v>7665.08</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.9223</v>
+        <v>1.9229</v>
       </c>
       <c r="B64" t="n">
-        <v>4.32428</v>
+        <v>7.51213</v>
       </c>
       <c r="C64" t="n">
-        <v>4324.28</v>
+        <v>7512.13</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95327</v>
+        <v>1.95419</v>
       </c>
       <c r="B65" t="n">
-        <v>4.33741</v>
+        <v>7.37567</v>
       </c>
       <c r="C65" t="n">
-        <v>4337.41</v>
+        <v>7375.67</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98423</v>
+        <v>1.98521</v>
       </c>
       <c r="B66" t="n">
-        <v>4.350270000000001</v>
+        <v>7.24524</v>
       </c>
       <c r="C66" t="n">
-        <v>4350.27</v>
+        <v>7245.24</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01534</v>
+        <v>2.01595</v>
       </c>
       <c r="B67" t="n">
-        <v>4.362979999999999</v>
+        <v>7.12594</v>
       </c>
       <c r="C67" t="n">
-        <v>4362.98</v>
+        <v>7125.94</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04672</v>
+        <v>2.04713</v>
       </c>
       <c r="B68" t="n">
-        <v>4.375430000000001</v>
+        <v>7.05572</v>
       </c>
       <c r="C68" t="n">
-        <v>4375.43</v>
+        <v>7055.72</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.0781</v>
+        <v>2.07819</v>
       </c>
       <c r="B69" t="n">
-        <v>4.38768</v>
+        <v>6.927140000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>4387.68</v>
+        <v>6927.14</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10918</v>
+        <v>2.10875</v>
       </c>
       <c r="B70" t="n">
-        <v>4.39984</v>
+        <v>6.850420000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>4399.84</v>
+        <v>6850.42</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13973</v>
+        <v>2.13969</v>
       </c>
       <c r="B71" t="n">
-        <v>4.411810000000001</v>
+        <v>6.78916</v>
       </c>
       <c r="C71" t="n">
-        <v>4411.81</v>
+        <v>6789.16</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17029</v>
+        <v>2.16994</v>
       </c>
       <c r="B72" t="n">
-        <v>4.42361</v>
+        <v>6.80345</v>
       </c>
       <c r="C72" t="n">
-        <v>4423.61</v>
+        <v>6803.45</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20085</v>
+        <v>2.2002</v>
       </c>
       <c r="B73" t="n">
-        <v>4.435210000000001</v>
+        <v>6.7846</v>
       </c>
       <c r="C73" t="n">
-        <v>4435.21</v>
+        <v>6784.6</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.2314</v>
+        <v>2.23162</v>
       </c>
       <c r="B74" t="n">
-        <v>4.44661</v>
+        <v>6.779500000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>4446.61</v>
+        <v>6779.5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26196</v>
+        <v>2.26422</v>
       </c>
       <c r="B75" t="n">
-        <v>4.457890000000001</v>
+        <v>6.74299</v>
       </c>
       <c r="C75" t="n">
-        <v>4457.89</v>
+        <v>6742.99</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29251</v>
+        <v>2.29495</v>
       </c>
       <c r="B76" t="n">
-        <v>4.46903</v>
+        <v>6.72382</v>
       </c>
       <c r="C76" t="n">
-        <v>4469.03</v>
+        <v>6723.82</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32306</v>
+        <v>2.32567</v>
       </c>
       <c r="B77" t="n">
-        <v>4.48007</v>
+        <v>6.67736</v>
       </c>
       <c r="C77" t="n">
-        <v>4480.07</v>
+        <v>6677.36</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35362</v>
+        <v>2.35639</v>
       </c>
       <c r="B78" t="n">
-        <v>4.49095</v>
+        <v>6.66797</v>
       </c>
       <c r="C78" t="n">
-        <v>4490.95</v>
+        <v>6667.97</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38417</v>
+        <v>2.38711</v>
       </c>
       <c r="B79" t="n">
-        <v>4.50168</v>
+        <v>6.633859999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>4501.68</v>
+        <v>6633.86</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41473</v>
+        <v>2.41783</v>
       </c>
       <c r="B80" t="n">
-        <v>4.51222</v>
+        <v>6.60255</v>
       </c>
       <c r="C80" t="n">
-        <v>4512.22</v>
+        <v>6602.55</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44618</v>
+        <v>2.44849</v>
       </c>
       <c r="B81" t="n">
-        <v>4.52297</v>
+        <v>6.557300000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>4522.97</v>
+        <v>6557.3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47775</v>
+        <v>2.47677</v>
       </c>
       <c r="B82" t="n">
-        <v>4.533609999999999</v>
+        <v>6.52038</v>
       </c>
       <c r="C82" t="n">
-        <v>4533.61</v>
+        <v>6520.38</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.50932</v>
+        <v>2.50493</v>
       </c>
       <c r="B83" t="n">
-        <v>4.544060000000001</v>
+        <v>6.486470000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>4544.06</v>
+        <v>6486.47</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.5409</v>
+        <v>2.53309</v>
       </c>
       <c r="B84" t="n">
-        <v>4.55438</v>
+        <v>6.44151</v>
       </c>
       <c r="C84" t="n">
-        <v>4554.38</v>
+        <v>6441.51</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57247</v>
+        <v>2.56125</v>
       </c>
       <c r="B85" t="n">
-        <v>4.564550000000001</v>
+        <v>6.39938</v>
       </c>
       <c r="C85" t="n">
-        <v>4564.55</v>
+        <v>6399.38</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60404</v>
+        <v>2.59275</v>
       </c>
       <c r="B86" t="n">
-        <v>4.57458</v>
+        <v>6.369</v>
       </c>
       <c r="C86" t="n">
-        <v>4574.58</v>
+        <v>6369</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63562</v>
+        <v>2.62795</v>
       </c>
       <c r="B87" t="n">
-        <v>4.58452</v>
+        <v>6.3144</v>
       </c>
       <c r="C87" t="n">
-        <v>4584.52</v>
+        <v>6314.4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66719</v>
+        <v>2.66298</v>
       </c>
       <c r="B88" t="n">
-        <v>4.59432</v>
+        <v>6.282010000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>4594.32</v>
+        <v>6282.01</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69876</v>
+        <v>2.69553</v>
       </c>
       <c r="B89" t="n">
-        <v>4.60397</v>
+        <v>6.2262</v>
       </c>
       <c r="C89" t="n">
-        <v>4603.97</v>
+        <v>6226.2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73033</v>
+        <v>2.72753</v>
       </c>
       <c r="B90" t="n">
-        <v>4.61346</v>
+        <v>6.18591</v>
       </c>
       <c r="C90" t="n">
-        <v>4613.46</v>
+        <v>6185.91</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76191</v>
+        <v>2.75953</v>
       </c>
       <c r="B91" t="n">
-        <v>4.62286</v>
+        <v>6.146500000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>4622.86</v>
+        <v>6146.5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79348</v>
+        <v>2.79153</v>
       </c>
       <c r="B92" t="n">
-        <v>4.63217</v>
+        <v>6.10287</v>
       </c>
       <c r="C92" t="n">
-        <v>4632.17</v>
+        <v>6102.87</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82505</v>
+        <v>2.82353</v>
       </c>
       <c r="B93" t="n">
-        <v>4.64136</v>
+        <v>6.06163</v>
       </c>
       <c r="C93" t="n">
-        <v>4641.36</v>
+        <v>6061.63</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85663</v>
+        <v>2.85553</v>
       </c>
       <c r="B94" t="n">
-        <v>4.65038</v>
+        <v>6.0235</v>
       </c>
       <c r="C94" t="n">
-        <v>4650.38</v>
+        <v>6023.5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.8882</v>
+        <v>2.88753</v>
       </c>
       <c r="B95" t="n">
-        <v>4.65927</v>
+        <v>5.97437</v>
       </c>
       <c r="C95" t="n">
-        <v>4659.27</v>
+        <v>5974.37</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91977</v>
+        <v>2.91953</v>
       </c>
       <c r="B96" t="n">
-        <v>4.66811</v>
+        <v>5.9306</v>
       </c>
       <c r="C96" t="n">
-        <v>4668.11</v>
+        <v>5930.6</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.95135</v>
+        <v>2.95106</v>
       </c>
       <c r="B97" t="n">
-        <v>4.67683</v>
+        <v>5.89543</v>
       </c>
       <c r="C97" t="n">
-        <v>4676.83</v>
+        <v>5895.43</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98292</v>
+        <v>2.98013</v>
       </c>
       <c r="B98" t="n">
-        <v>4.6854</v>
+        <v>5.89157</v>
       </c>
       <c r="C98" t="n">
-        <v>4685.4</v>
+        <v>5891.57</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01449</v>
+        <v>3.00893</v>
       </c>
       <c r="B99" t="n">
-        <v>4.69388</v>
+        <v>5.83122</v>
       </c>
       <c r="C99" t="n">
-        <v>4693.88</v>
+        <v>5831.22</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04607</v>
+        <v>3.03773</v>
       </c>
       <c r="B100" t="n">
-        <v>4.70228</v>
+        <v>5.79465</v>
       </c>
       <c r="C100" t="n">
-        <v>4702.28</v>
+        <v>5794.65</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07764</v>
+        <v>3.06653</v>
       </c>
       <c r="B101" t="n">
-        <v>4.71054</v>
+        <v>5.76008</v>
       </c>
       <c r="C101" t="n">
-        <v>4710.54</v>
+        <v>5760.08</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10921</v>
+        <v>3.09533</v>
       </c>
       <c r="B102" t="n">
-        <v>4.71867</v>
+        <v>5.73562</v>
       </c>
       <c r="C102" t="n">
-        <v>4718.67</v>
+        <v>5735.62</v>
       </c>
     </row>
   </sheetData>
